--- a/sd-suppr-ref-volet-securisation-transport/ig/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/sd-suppr-ref-volet-securisation-transport/ig/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:50:06+00:00</t>
+    <t>2024-07-08T17:03:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-suppr-ref-volet-securisation-transport/ig/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/sd-suppr-ref-volet-securisation-transport/ig/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T17:03:19+00:00</t>
+    <t>2024-07-08T17:07:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
